--- a/docs/제출 문서/20200416간트차트.xlsx
+++ b/docs/제출 문서/20200416간트차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woqls\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\수업\쿠허브캡스톤\HEN_Project2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE61FA-7F8B-4BA4-BEF9-D61B5B0A0F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB71B34C-2FB2-4471-882C-677BFA456468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D9C644B-56A8-42AB-9556-E63C4E3A5850}"/>
   </bookViews>
@@ -63,22 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크롭 전략 분류 및 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신러닝 라이브러리별 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실내 환경 특화 학습 백데이터 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Human Location Detect 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피 알고리즘 설계 전략 회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네트워크 모듈 설계 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중간보고서 작성 및 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 모듈 결합[영상,ML,회피]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통합모듈 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,18 +105,6 @@
   <si>
     <t>발표 준비 및 자료 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 전처리 모듈 개발
-[Text, Human Crop]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신러닝 및 영상처리 모듈 결합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유스케이스, 클래스 설계</t>
   </si>
   <si>
     <t xml:space="preserve"> [ 실내 문서 전달용 자율주행카트를 위한 영상처리, ML, 회피 알고리즘 모듈 구현]</t>
@@ -171,26 +139,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전
-처
-리
-모
-듈
-개
-발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M/L
 모듈
 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학습 모델 평가 및 Latency 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피
 모듈
 구현</t>
@@ -204,6 +158,52 @@
   <si>
     <t>모듈
 결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간트차트, UseCase작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 OCR라이브러리별 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 고도화 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템
+고도화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 처리 모듈 개발
+[Text Crop]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상
+처리
+모듈
+개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 처리 모듈 개발
+[Human Detection]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 명세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 및 영상처리 모듈간 통신구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +266,24 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -491,13 +513,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,45 +628,57 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,12 +688,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,22 +697,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +1055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B5600B-69EE-48E6-B930-C416673572D8}">
-  <dimension ref="A1:CW29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:CW26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,94 +1075,94 @@
   <sheetData>
     <row r="1" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="35"/>
+      <c r="B1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="37"/>
       <c r="CH1" s="1"/>
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
@@ -1115,90 +1182,90 @@
     </row>
     <row r="2" spans="1:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="37"/>
-      <c r="CG2" s="38"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="38"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="39"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
@@ -1218,90 +1285,90 @@
     </row>
     <row r="3" spans="1:101" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="39"/>
-      <c r="BI3" s="39"/>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="39"/>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="39"/>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="39"/>
-      <c r="BW3" s="39"/>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="39"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="39"/>
-      <c r="CC3" s="39"/>
-      <c r="CD3" s="39"/>
-      <c r="CE3" s="39"/>
-      <c r="CF3" s="39"/>
-      <c r="CG3" s="40"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40"/>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40"/>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="40"/>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40"/>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="40"/>
+      <c r="CG3" s="41"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
@@ -1321,105 +1388,105 @@
     </row>
     <row r="4" spans="1:101" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="42" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="42" t="s">
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="42"/>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="43"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="33"/>
     </row>
     <row r="5" spans="1:101" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="13">
         <v>1</v>
       </c>
@@ -1669,8 +1736,8 @@
     </row>
     <row r="6" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="44" t="s">
-        <v>28</v>
+      <c r="B6" s="48" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>0</v>
@@ -1760,7 +1827,7 @@
     </row>
     <row r="7" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="45"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1916,7 @@
     </row>
     <row r="8" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
@@ -1938,9 +2005,9 @@
     </row>
     <row r="9" spans="1:101" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1954,16 +2021,18 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1973,15 +2042,13 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
+      <c r="AJ9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
@@ -2025,10 +2092,10 @@
       <c r="CF9" s="3"/>
       <c r="CG9" s="4"/>
     </row>
-    <row r="10" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="47" t="s">
-        <v>33</v>
+      <c r="B10" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>3</v>
@@ -2116,11 +2183,11 @@
       <c r="CF10" s="3"/>
       <c r="CG10" s="4"/>
     </row>
-    <row r="11" spans="1:101" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="23" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -2205,11 +2272,11 @@
       <c r="CF11" s="3"/>
       <c r="CG11" s="4"/>
     </row>
-    <row r="12" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="24" t="s">
-        <v>8</v>
+      <c r="B12" s="60"/>
+      <c r="C12" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
@@ -2223,20 +2290,16 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -2296,9 +2359,11 @@
     </row>
     <row r="13" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="24" t="s">
-        <v>7</v>
+      <c r="B13" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -2317,15 +2382,6 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -2385,9 +2441,9 @@
     </row>
     <row r="14" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="24" t="s">
-        <v>10</v>
+      <c r="B14" s="51"/>
+      <c r="C14" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
@@ -2402,15 +2458,19 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2468,13 +2528,11 @@
       <c r="CF14" s="3"/>
       <c r="CG14" s="4"/>
     </row>
-    <row r="15" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>9</v>
+      <c r="B15" s="62"/>
+      <c r="C15" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
@@ -2492,12 +2550,17 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="X15" s="8"/>
-      <c r="AD15" s="3"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="4"/>
@@ -2556,9 +2619,11 @@
     </row>
     <row r="16" spans="1:101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="20" t="s">
-        <v>13</v>
+      <c r="B16" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
@@ -2579,22 +2644,18 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
@@ -2643,11 +2704,11 @@
       <c r="CF16" s="3"/>
       <c r="CG16" s="4"/>
     </row>
-    <row r="17" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:85" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="20" t="s">
-        <v>35</v>
+      <c r="B17" s="53"/>
+      <c r="C17" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -2656,22 +2717,40 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="8"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
@@ -2714,12 +2793,12 @@
       <c r="CF17" s="3"/>
       <c r="CG17" s="4"/>
     </row>
-    <row r="18" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:85" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2"/>
@@ -2741,18 +2820,18 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="8"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -2807,9 +2886,11 @@
     </row>
     <row r="19" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="25" t="s">
-        <v>16</v>
+      <c r="B19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -2839,19 +2920,19 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
@@ -2896,9 +2977,9 @@
     </row>
     <row r="20" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
@@ -2924,12 +3005,12 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="12"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="4"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
@@ -2943,13 +3024,13 @@
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
@@ -2983,12 +3064,10 @@
       <c r="CF20" s="3"/>
       <c r="CG20" s="4"/>
     </row>
-    <row r="21" spans="1:85" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:85" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2"/>
@@ -3014,14 +3093,14 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -3038,14 +3117,14 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
       <c r="BG21" s="3"/>
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
@@ -3074,13 +3153,13 @@
       <c r="CF21" s="3"/>
       <c r="CG21" s="4"/>
     </row>
-    <row r="22" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:85" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>24</v>
+      <c r="B22" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
@@ -3094,36 +3173,36 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
@@ -3133,13 +3212,13 @@
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BL22" s="4"/>
@@ -3148,10 +3227,10 @@
       <c r="BO22" s="3"/>
       <c r="BP22" s="3"/>
       <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
+      <c r="BR22" s="8"/>
+      <c r="BS22" s="8"/>
+      <c r="BT22" s="8"/>
+      <c r="BU22" s="8"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="3"/>
       <c r="BX22" s="3"/>
@@ -3167,9 +3246,11 @@
     </row>
     <row r="23" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="25" t="s">
-        <v>19</v>
+      <c r="B23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
@@ -3210,26 +3291,26 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
       <c r="BK23" s="3"/>
       <c r="BL23" s="4"/>
       <c r="BM23" s="3"/>
@@ -3254,11 +3335,11 @@
       <c r="CF23" s="3"/>
       <c r="CG23" s="4"/>
     </row>
-    <row r="24" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:85" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="25" t="s">
-        <v>17</v>
+      <c r="B24" s="43"/>
+      <c r="C24" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
@@ -3303,28 +3384,28 @@
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
       <c r="BQ24" s="3"/>
       <c r="BR24" s="3"/>
       <c r="BS24" s="3"/>
@@ -3343,11 +3424,13 @@
       <c r="CF24" s="3"/>
       <c r="CG24" s="4"/>
     </row>
-    <row r="25" spans="1:85" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="27" t="s">
-        <v>20</v>
+      <c r="B25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
@@ -3396,14 +3479,14 @@
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
@@ -3412,14 +3495,14 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="3"/>
       <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
-      <c r="BT25" s="3"/>
-      <c r="BU25" s="3"/>
-      <c r="BV25" s="3"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
       <c r="BW25" s="3"/>
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
@@ -3432,377 +3515,108 @@
       <c r="CF25" s="3"/>
       <c r="CG25" s="4"/>
     </row>
-    <row r="26" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="4"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-      <c r="BT26" s="3"/>
-      <c r="BU26" s="3"/>
-      <c r="BV26" s="3"/>
-      <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-      <c r="BY26" s="3"/>
-      <c r="BZ26" s="3"/>
-      <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
-      <c r="CC26" s="3"/>
-      <c r="CD26" s="3"/>
-      <c r="CE26" s="3"/>
-      <c r="CF26" s="3"/>
-      <c r="CG26" s="4"/>
-    </row>
-    <row r="27" spans="1:85" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="12"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-      <c r="BO27" s="8"/>
-      <c r="BP27" s="8"/>
-      <c r="BQ27" s="3"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="3"/>
-      <c r="BU27" s="3"/>
-      <c r="BV27" s="3"/>
-      <c r="BW27" s="3"/>
-      <c r="BX27" s="3"/>
-      <c r="BY27" s="3"/>
-      <c r="BZ27" s="3"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
-      <c r="CC27" s="3"/>
-      <c r="CD27" s="3"/>
-      <c r="CE27" s="3"/>
-      <c r="CF27" s="3"/>
-      <c r="CG27" s="4"/>
-    </row>
-    <row r="28" spans="1:85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
-      <c r="BK28" s="3"/>
-      <c r="BL28" s="4"/>
-      <c r="BM28" s="3"/>
-      <c r="BN28" s="3"/>
-      <c r="BO28" s="8"/>
-      <c r="BP28" s="8"/>
-      <c r="BQ28" s="8"/>
-      <c r="BR28" s="8"/>
-      <c r="BS28" s="8"/>
-      <c r="BT28" s="8"/>
-      <c r="BU28" s="8"/>
-      <c r="BV28" s="8"/>
-      <c r="BW28" s="3"/>
-      <c r="BX28" s="3"/>
-      <c r="BY28" s="3"/>
-      <c r="BZ28" s="3"/>
-      <c r="CA28" s="3"/>
-      <c r="CB28" s="3"/>
-      <c r="CC28" s="3"/>
-      <c r="CD28" s="3"/>
-      <c r="CE28" s="3"/>
-      <c r="CF28" s="3"/>
-      <c r="CG28" s="4"/>
-    </row>
-    <row r="29" spans="1:85" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
-      <c r="BG29" s="6"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="6"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="6"/>
-      <c r="BL29" s="7"/>
-      <c r="BM29" s="6"/>
-      <c r="BN29" s="6"/>
-      <c r="BO29" s="6"/>
-      <c r="BP29" s="6"/>
-      <c r="BQ29" s="6"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="6"/>
-      <c r="BU29" s="6"/>
-      <c r="BV29" s="10"/>
-      <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
-      <c r="BY29" s="10"/>
-      <c r="BZ29" s="10"/>
-      <c r="CA29" s="10"/>
-      <c r="CB29" s="10"/>
-      <c r="CC29" s="6"/>
-      <c r="CD29" s="6"/>
-      <c r="CE29" s="6"/>
-      <c r="CF29" s="6"/>
-      <c r="CG29" s="7"/>
+    <row r="26" spans="1:85" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="6"/>
+      <c r="BN26" s="6"/>
+      <c r="BO26" s="6"/>
+      <c r="BP26" s="6"/>
+      <c r="BQ26" s="6"/>
+      <c r="BR26" s="6"/>
+      <c r="BS26" s="6"/>
+      <c r="BT26" s="6"/>
+      <c r="BU26" s="6"/>
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="6"/>
+      <c r="CD26" s="6"/>
+      <c r="CE26" s="6"/>
+      <c r="CF26" s="6"/>
+      <c r="CG26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="16">
+    <mergeCell ref="Q9:Y9"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="D4:AG4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D1:CG3"/>
@@ -3810,7 +3624,7 @@
     <mergeCell ref="BM4:CG4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>